--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
